--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/igra2_orphans_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/igra2_orphans_station_configuration_extended.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN101"/>
+  <dimension ref="A1:AN89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +636,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AYM00089009</t>
+          <t>AYM00089009-data.txt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-20999-0-89009</t>
+          <t>0-20999-0-AYM00089009</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>89009</t>
+          <t>AYM00089009</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>-0.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>19610101</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>20250104</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZZV00ASDK03</t>
+          <t>ZZV0000DBBH-data.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-20999-0-SDK03</t>
+          <t>0-20999-0-ZZV0000DBBH</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>SDK03</t>
+          <t>ZZV0000DBBH</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-17.1</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>19790118</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>20050809</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZZV00ASES01</t>
+          <t>ZZV0000DBFM-data.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-20999-0-SES01</t>
+          <t>0-20999-0-ZZV0000DBFM</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SES01</t>
+          <t>ZZV0000DBFM</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>66.2</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>19850723</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>19881105</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZZV00ASEU01</t>
+          <t>ZZV0000DBLK-data.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-20999-0-SEU01</t>
+          <t>0-20999-0-ZZV0000DBLK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SEU01</t>
+          <t>ZZV0000DBLK</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-48.1</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-60.7</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>19850112</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>20241009</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZZV00ASEU02</t>
+          <t>ZZV0000DCMS-data.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-20999-0-SEU02</t>
+          <t>0-20999-0-ZZV0000DCMS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SEU02</t>
+          <t>ZZV0000DCMS</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-8.6</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>19911025</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>19930216</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZZV00ASEU03</t>
+          <t>ZZV0000DFCG-data.txt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-20999-0-SEU03</t>
+          <t>0-20999-0-ZZV0000DFCG</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SEU03</t>
+          <t>ZZV0000DFCG</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>142.0</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1694,12 +1694,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>20091009</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>20151022</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZZV00ASEU04</t>
+          <t>ZZV0000DZHA-data.txt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-20999-0-SEU04</t>
+          <t>0-20999-0-ZZV0000DZHA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>SEU04</t>
+          <t>ZZV0000DZHA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>19900320</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>19910622</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZZV00ASEU05</t>
+          <t>ZZV0000EBUQ-data.txt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-20999-0-SEU05</t>
+          <t>0-20999-0-ZZV0000EBUQ</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>SEU05</t>
+          <t>ZZV0000EBUQ</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17.9</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>20030213</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>20071104</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZZV00ASEU06</t>
+          <t>ZZV0000EREB-data.txt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-20999-0-SEU06</t>
+          <t>0-20999-0-ZZV0000EREB</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>SEU06</t>
+          <t>ZZV0000EREB</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>139.3</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>19730512</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>19900515</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZZV00ASGB01</t>
+          <t>ZZV0000EREI-data.txt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-20999-0-SGB01</t>
+          <t>0-20999-0-ZZV0000EREI</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>SGB01</t>
+          <t>ZZV0000EREI</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2471,12 +2471,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>135.0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2486,12 +2486,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>19730218</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>19901025</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ZZXUAICE002</t>
+          <t>ZZV0000ERES-data.txt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-20999-0-CE002</t>
+          <t>0-20999-0-ZZV0000ERES</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CE002</t>
+          <t>ZZV0000ERES</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>19740627</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>19910301</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ZZXUAICE003</t>
+          <t>ZZV0000FNOR-data.txt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-20999-0-CE003</t>
+          <t>0-20999-0-ZZV0000FNOR</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CE003</t>
+          <t>ZZV0000FNOR</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-32.0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>19860709</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>20021223</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ZZXUAICE004</t>
+          <t>ZZV0000FNOU-data.txt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-20999-0-CE004</t>
+          <t>0-20999-0-ZZV0000FNOU</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CE004</t>
+          <t>ZZV0000FNOU</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-42.2</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33.5</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>19860709</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>20021207</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ZZXUAICE005</t>
+          <t>ZZV0000FNPH-data.txt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-20999-0-CE005</t>
+          <t>0-20999-0-ZZV0000FNPH</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>CE005</t>
+          <t>ZZV0000FNPH</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-45.7</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25.4</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>19870101</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>20030713</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ZZXUAICE006</t>
+          <t>ZZV0000FNRS-data.txt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-20999-0-CE006</t>
+          <t>0-20999-0-ZZV0000FNRS</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CE006</t>
+          <t>ZZV0000FNRS</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3461,12 +3461,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>19861106</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>20030727</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ZZXUAICE007</t>
+          <t>ZZV0000FQFL-data.txt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-20999-0-CE007</t>
+          <t>0-20999-0-ZZV0000FQFL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>CE007</t>
+          <t>ZZV0000FQFL</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-12.4</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3674,12 +3674,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>20030721</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>20061224</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ZZXUAICE008</t>
+          <t>ZZV0000JBOA-data.txt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-20999-0-CE008</t>
+          <t>0-20999-0-ZZV0000JBOA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CE008</t>
+          <t>ZZV0000JBOA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3857,12 +3857,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>127.6</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>19730628</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>20000604</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ZZXUAICE009</t>
+          <t>ZZV0000JCCX-data.txt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-20999-0-CE009</t>
+          <t>0-20999-0-ZZV0000JCCX</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CE009</t>
+          <t>ZZV0000JCCX</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4055,12 +4055,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>128.3</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>30.9</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>19880116</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>20091013</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ZZXUAICE010</t>
+          <t>ZZV0000JDWX-data.txt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-20999-0-CE010</t>
+          <t>0-20999-0-ZZV0000JDWX</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CE010</t>
+          <t>ZZV0000JDWX</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>19890124</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>20091117</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ZZXUAICE011</t>
+          <t>ZZV0000JGQH-data.txt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-20999-0-CE011</t>
+          <t>0-20999-0-ZZV0000JGQH</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>CE011</t>
+          <t>ZZV0000JGQH</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>137.0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -4466,12 +4466,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>20000123</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>20230913</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ZZXUAICE012</t>
+          <t>ZZV0000JIVB-data.txt</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-20999-0-CE012</t>
+          <t>0-20999-0-ZZV0000JIVB</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>CE012</t>
+          <t>ZZV0000JIVB</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>135.0</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4664,12 +4664,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>20000119</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>20080928</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ZZXUAICE013</t>
+          <t>ZZV0000JNSR-data.txt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-20999-0-CE013</t>
+          <t>0-20999-0-ZZV0000JNSR</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CE013</t>
+          <t>ZZV0000JNSR</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4847,12 +4847,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>169.6</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4862,12 +4862,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>20000223</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ZZXUAICE014</t>
+          <t>ZZV0000KAOU-data.txt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-20999-0-CE014</t>
+          <t>0-20999-0-ZZV0000KAOU</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CE014</t>
+          <t>ZZV0000KAOU</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5045,12 +5045,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>108.4</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-12.3</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5060,12 +5060,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>20110902</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>20120211</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ZZXUAICE015</t>
+          <t>ZZV0000KNIJ-data.txt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-20999-0-CE015</t>
+          <t>0-20999-0-ZZV0000KNIJ</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>CE015</t>
+          <t>ZZV0000KNIJ</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5243,12 +5243,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-137.5</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -5258,12 +5258,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>19851112</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>19871222</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ZZXUAICE016</t>
+          <t>ZZV0000LDWR-data.txt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-20999-0-CE016</t>
+          <t>0-20999-0-ZZV0000LDWR</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>CE016</t>
+          <t>ZZV0000LDWR</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5441,12 +5441,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>19900124</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>20091128</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ZZXUAICE017</t>
+          <t>ZZV0000LGKI-data.txt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-20999-0-CE017</t>
+          <t>0-20999-0-ZZV0000LGKI</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CE017</t>
+          <t>ZZV0000LGKI</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -5654,12 +5654,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>20150123</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>20150623</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ZZXUAICE019</t>
+          <t>ZZV0000SWJS-data.txt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-20999-0-CE019</t>
+          <t>0-20999-0-ZZV0000SWJS</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>CE019</t>
+          <t>ZZV0000SWJS</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5852,12 +5852,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>20001223</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>20030601</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ZZXUAICE021</t>
+          <t>ZZV0000UBLF-data.txt</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-20999-0-CE021</t>
+          <t>0-20999-0-ZZV0000UBLF</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>CE021</t>
+          <t>ZZV0000UBLF</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-17.9</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>19740620</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>19790820</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZZXUAICE022</t>
+          <t>ZZV0000UBNZ-data.txt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-20999-0-CE022</t>
+          <t>0-20999-0-ZZV0000UBNZ</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>CE022</t>
+          <t>ZZV0000UBNZ</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6233,12 +6233,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>19830611</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>19910408</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -6378,7 +6378,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ZZXUAICE026</t>
+          <t>ZZV0000UFTA-data.txt</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-20999-0-CE026</t>
+          <t>0-20999-0-ZZV0000UFTA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>CE026</t>
+          <t>ZZV0000UFTA</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6431,12 +6431,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>178.9</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -6446,12 +6446,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>20080924</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>20120806</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ZZXUAICE028</t>
+          <t>ZZV0000UHQS-data.txt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-20999-0-CE028</t>
+          <t>0-20999-0-ZZV0000UHQS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>CE028</t>
+          <t>ZZV0000UHQS</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -6629,12 +6629,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-28.0</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>19740623</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>19901028</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ZZXUAICE030</t>
+          <t>ZZV0000UVMJ-data.txt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-20999-0-CE030</t>
+          <t>0-20999-0-ZZV0000UVMJ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CE030</t>
+          <t>ZZV0000UVMJ</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6827,12 +6827,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -6842,12 +6842,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>19771101</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>19830902</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ZZXUAICE031</t>
+          <t>ZZV0000UZGH-data.txt</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-20999-0-CE031</t>
+          <t>0-20999-0-ZZV0000UZGH</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>CE031</t>
+          <t>ZZV0000UZGH</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -7025,12 +7025,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -7040,12 +7040,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>19740101</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>19910512</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ZZV0000DBBH</t>
+          <t>ZZV0000V2LV-data.txt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-20999-0-0DBBH</t>
+          <t>0-20999-0-ZZV0000V2LV</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0DBBH</t>
+          <t>ZZV0000V2LV</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -7223,12 +7223,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -7238,12 +7238,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>19930224</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>19930630</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ZZV0000DBFM</t>
+          <t>ZZV0000V2XM-data.txt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-20999-0-0DBFM</t>
+          <t>0-20999-0-ZZV0000V2XM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0DBFM</t>
+          <t>ZZV0000V2XM</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-29.1</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>20030202</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>20070424</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ZZV0000DBLK</t>
+          <t>ZZV0000VPHA-data.txt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-20999-0-0DBLK</t>
+          <t>0-20999-0-ZZV0000VPHA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0DBLK</t>
+          <t>ZZV0000VPHA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -7619,12 +7619,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-35.2</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -7634,12 +7634,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>19880106</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>19921231</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ZZV0000DCMS</t>
+          <t>ZZV0000WAAH-data.txt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-20999-0-0DCMS</t>
+          <t>0-20999-0-ZZV0000WAAH</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -7787,7 +7787,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0DCMS</t>
+          <t>ZZV0000WAAH</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7817,12 +7817,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-15.3</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44.2</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -7832,12 +7832,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>20040123</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>20051124</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ZZV0000DESI</t>
+          <t>ZZV0000WTEC-data.txt</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-20999-0-0DESI</t>
+          <t>0-20999-0-ZZV0000WTEC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0DESI</t>
+          <t>ZZV0000WTEC</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -8015,12 +8015,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-128.5</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33.2</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -8030,12 +8030,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>20001007</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>20200203</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ZZV0000DKIW</t>
+          <t>ZZV0000ZDLG-data.txt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-20999-0-0DKIW</t>
+          <t>0-20999-0-ZZV0000ZDLG</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0DKIW</t>
+          <t>ZZV0000ZDLG</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -8213,12 +8213,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-68.3</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>19860108</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>19930430</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ZZV0000DFCG</t>
+          <t>ZZV0000ZSAF-data.txt</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-20999-0-0DFCG</t>
+          <t>0-20999-0-ZZV0000ZSAF</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0DFCG</t>
+          <t>ZZV0000ZSAF</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -8411,12 +8411,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-45.4</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>19890814</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>20081012</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ZZV0000DZHA</t>
+          <t>ZZV000ASFR2-data.txt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-20999-0-0DZHA</t>
+          <t>0-20999-0-ZZV000ASFR2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0DZHA</t>
+          <t>ZZV000ASFR2</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -8609,12 +8609,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-12.9</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -8624,12 +8624,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>20070404</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>20180527</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ZZV0000EBUQ</t>
+          <t>ZZV000ASFR3-data.txt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-20999-0-0EBUQ</t>
+          <t>0-20999-0-ZZV000ASFR3</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0EBUQ</t>
+          <t>ZZV000ASFR3</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8807,12 +8807,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -8822,12 +8822,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>20100202</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>20180609</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ZZV0000EREB</t>
+          <t>ZZV000ASFR4-data.txt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-20999-0-0EREB</t>
+          <t>0-20999-0-ZZV000ASFR4</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0EREB</t>
+          <t>ZZV000ASFR4</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -9005,12 +9005,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-26.8</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9020,12 +9020,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>20100225</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>20180602</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ZZV0000EREI</t>
+          <t>ZZV000LADB2-data.txt</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-20999-0-0EREI</t>
+          <t>0-20999-0-ZZV000LADB2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0EREI</t>
+          <t>ZZV000LADB2</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -9203,12 +9203,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-135.7</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9218,12 +9218,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>19920113</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>19930629</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ZZV0000ERES</t>
+          <t>ZZV000LAJV4-data.txt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-20999-0-0ERES</t>
+          <t>0-20999-0-ZZV000LAJV4</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0ERES</t>
+          <t>ZZV000LAJV4</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -9401,12 +9401,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>149.2</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9416,12 +9416,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>19910325</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>19920326</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ZZV0000FNOR</t>
+          <t>ZZV000OVYA2-data.txt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-20999-0-0FNOR</t>
+          <t>0-20999-0-ZZV000OVYA2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0FNOR</t>
+          <t>ZZV000OVYA2</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -9599,12 +9599,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -9614,12 +9614,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>20000109</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>20030125</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ZZV0000FNOU</t>
+          <t>ZZV000OXTS2-data.txt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-20999-0-0FNOU</t>
+          <t>0-20999-0-ZZV000OXTS2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0FNOU</t>
+          <t>ZZV000OXTS2</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -9797,12 +9797,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-28.2</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>20000103</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>20070224</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ZZV0000FNPH</t>
+          <t>ZZV000OXVH2-data.txt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-20999-0-0FNPH</t>
+          <t>0-20999-0-ZZV000OXVH2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0FNPH</t>
+          <t>ZZV000OXVH2</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -9995,12 +9995,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-6.7</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10010,12 +10010,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>20030412</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>20061130</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ZZV0000FNRS</t>
+          <t>ZZV000OXYH2-data.txt</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-20999-0-0FNRS</t>
+          <t>0-20999-0-ZZV000OXYH2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0FNRS</t>
+          <t>ZZV000OXYH2</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>20000415</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>20051130</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -10338,7 +10338,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ZZV0000FQFL</t>
+          <t>ZZV000P3OO4-data.txt</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-20999-0-0FQFL</t>
+          <t>0-20999-0-ZZV000P3OO4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0FQFL</t>
+          <t>ZZV000P3OO4</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -10391,12 +10391,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-84.5</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>24.7</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10406,12 +10406,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>19920830</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>19930629</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ZZV0000FQFM</t>
+          <t>ZZV000VSBV3-data.txt</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-20999-0-0FQFM</t>
+          <t>0-20999-0-ZZV000VSBV3</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0FQFM</t>
+          <t>ZZV000VSBV3</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -10589,12 +10589,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-11.5</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10604,12 +10604,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>19920115</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>19921218</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -10734,7 +10734,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ZZV0000JBOA</t>
+          <t>ZZV00ASDE01-data.txt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-20999-0-0JBOA</t>
+          <t>0-20999-0-ZZV00ASDE01</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0JBOA</t>
+          <t>ZZV00ASDE01</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -10787,12 +10787,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10802,12 +10802,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>20061115</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>20170810</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ZZV0000JCCX</t>
+          <t>ZZV00ASDE02-data.txt</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-20999-0-0JCCX</t>
+          <t>0-20999-0-ZZV00ASDE02</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0JCCX</t>
+          <t>ZZV00ASDE02</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -10985,12 +10985,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -11000,12 +11000,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>20061111</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>20171008</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ZZV0000JDWX</t>
+          <t>ZZV00ASDE03-data.txt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-20999-0-0JDWX</t>
+          <t>0-20999-0-ZZV00ASDE03</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0JDWX</t>
+          <t>ZZV00ASDE03</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -11183,12 +11183,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-65.7</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -11198,12 +11198,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>20061123</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>20170629</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ZZV0000JGQH</t>
+          <t>ZZV00ASDE04-data.txt</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11338,7 +11338,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-20999-0-0JGQH</t>
+          <t>0-20999-0-ZZV00ASDE04</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0JGQH</t>
+          <t>ZZV00ASDE04</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -11381,12 +11381,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-29.5</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -11396,12 +11396,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>20060619</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>20160930</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -11526,7 +11526,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ZZV0000JIVB</t>
+          <t>ZZV00ASDK01-data.txt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-20999-0-0JIVB</t>
+          <t>0-20999-0-ZZV00ASDK01</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0JIVB</t>
+          <t>ZZV00ASDK01</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -11579,12 +11579,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -11594,12 +11594,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>20070303</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>20171220</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -11724,7 +11724,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ZZV0000JNSR</t>
+          <t>ZZV00ASDK02-data.txt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-20999-0-0JNSR</t>
+          <t>0-20999-0-ZZV00ASDK02</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0JNSR</t>
+          <t>ZZV00ASDK02</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -11777,12 +11777,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-26.5</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -11792,12 +11792,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>20070713</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>20171108</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -11922,7 +11922,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ZZV0000KAOU</t>
+          <t>ZZV00ASDK03-data.txt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-20999-0-0KAOU</t>
+          <t>0-20999-0-ZZV00ASDK03</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0KAOU</t>
+          <t>ZZV00ASDK03</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -11975,12 +11975,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-12.3</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -11990,12 +11990,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>20150418</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>20171204</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ZZV0000KHRH</t>
+          <t>ZZV00ASES01-data.txt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-20999-0-0KHRH</t>
+          <t>0-20999-0-ZZV00ASES01</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0KHRH</t>
+          <t>ZZV00ASES01</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-17.6</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>20080111</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>20170921</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ZZV0000KNIJ</t>
+          <t>ZZV00ASEU01-data.txt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-20999-0-0KNIJ</t>
+          <t>0-20999-0-ZZV00ASEU01</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0KNIJ</t>
+          <t>ZZV00ASEU01</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -12371,12 +12371,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-59.1</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -12386,12 +12386,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>20061112</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>20170905</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ZZV0000LDWR</t>
+          <t>ZZV00ASEU02-data.txt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-20999-0-0LDWR</t>
+          <t>0-20999-0-ZZV00ASEU02</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -12539,7 +12539,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0LDWR</t>
+          <t>ZZV00ASEU02</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -12569,12 +12569,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-13.6</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -12584,12 +12584,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>20070125</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>20170908</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ZZV0000LGKI</t>
+          <t>ZZV00ASEU03-data.txt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-20999-0-0LGKI</t>
+          <t>0-20999-0-ZZV00ASEU03</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0LGKI</t>
+          <t>ZZV00ASEU03</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -12767,12 +12767,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-16.8</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -12782,12 +12782,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>20070113</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>20170706</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -12912,7 +12912,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ZZV0000SWJS</t>
+          <t>ZZV00ASEU04-data.txt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -12922,7 +12922,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-20999-0-0SWJS</t>
+          <t>0-20999-0-ZZV00ASEU04</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0SWJS</t>
+          <t>ZZV00ASEU04</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -12965,12 +12965,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-34.8</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>20061111</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>20170917</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ZZV0000UBLF</t>
+          <t>ZZV00ASEU05-data.txt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13120,7 +13120,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-20999-0-0UBLF</t>
+          <t>0-20999-0-ZZV00ASEU05</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0UBLF</t>
+          <t>ZZV00ASEU05</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -13163,12 +13163,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-74.5</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -13178,12 +13178,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>20061117</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>20170814</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ZZV0000UBNZ</t>
+          <t>ZZV00ASGB01-data.txt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-20999-0-0UBNZ</t>
+          <t>0-20999-0-ZZV00ASGB01</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0UBNZ</t>
+          <t>ZZV00ASGB01</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -13361,12 +13361,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-32.1</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -13376,12 +13376,12 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>20070101</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>20110709</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ZZV0000UFTA</t>
+          <t>ZZXUAICE002-data.txt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-20999-0-0UFTA</t>
+          <t>0-20999-0-ZZXUAICE002</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0UFTA</t>
+          <t>ZZXUAICE002</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -13559,12 +13559,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-167.2</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -13574,12 +13574,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>19500415</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>19501019</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -13704,7 +13704,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ZZV0000UHQS</t>
+          <t>ZZXUAICE003-data.txt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13714,7 +13714,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-20999-0-0UHQS</t>
+          <t>0-20999-0-ZZXUAICE003</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0UHQS</t>
+          <t>ZZXUAICE003</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -13757,12 +13757,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-177.1</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>86.6</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -13772,12 +13772,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>19540420</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>19550414</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -13902,7 +13902,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ZZV0000UVMJ</t>
+          <t>ZZXUAICE004-data.txt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-20999-0-0UVMJ</t>
+          <t>0-20999-0-ZZXUAICE004</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0UVMJ</t>
+          <t>ZZXUAICE004</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -13955,12 +13955,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-178.1</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -13970,12 +13970,12 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>19540419</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>19570415</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ZZV0000UZGH</t>
+          <t>ZZXUAICE005-data.txt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-20999-0-0UZGH</t>
+          <t>0-20999-0-ZZXUAICE005</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0UZGH</t>
+          <t>ZZXUAICE005</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -14153,12 +14153,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>155.4</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -14168,12 +14168,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>19550507</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>19560415</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ZZV0000V2LV</t>
+          <t>ZZXUAICE006-data.txt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14308,7 +14308,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-20999-0-0V2LV</t>
+          <t>0-20999-0-ZZXUAICE006</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0V2LV</t>
+          <t>ZZXUAICE006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -14351,12 +14351,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>178.4</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>74.9</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -14366,12 +14366,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>19560516</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ZZV0000V2XM</t>
+          <t>ZZXUAICE007-data.txt</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-20999-0-0V2XM</t>
+          <t>0-20999-0-ZZXUAICE007</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -14519,7 +14519,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0V2XM</t>
+          <t>ZZXUAICE007</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -14549,12 +14549,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-164.0</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>19570519</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ZZV0000V2XO</t>
+          <t>ZZXUAICE008-data.txt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-20999-0-0V2XO</t>
+          <t>0-20999-0-ZZXUAICE008</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0V2XO</t>
+          <t>ZZXUAICE008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -14747,12 +14747,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-166.5</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -14762,12 +14762,12 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>19590524</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>19611030</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ZZV0000VPHA</t>
+          <t>ZZXUAICE009-data.txt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-20999-0-0VPHA</t>
+          <t>0-20999-0-ZZXUAICE009</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0VPHA</t>
+          <t>ZZXUAICE009</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -14945,12 +14945,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>163.1</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -14960,12 +14960,12 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>19600614</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>19610310</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ZZV0000WAAH</t>
+          <t>ZZXUAICE010-data.txt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-20999-0-0WAAH</t>
+          <t>0-20999-0-ZZXUAICE010</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0WAAH</t>
+          <t>ZZXUAICE010</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -15143,12 +15143,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>171.5</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -15158,12 +15158,12 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>19611104</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>19640422</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ZZV0000WPKD</t>
+          <t>ZZXUAICE011-data.txt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-20999-0-0WPKD</t>
+          <t>0-20999-0-ZZXUAICE011</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0WPKD</t>
+          <t>ZZXUAICE011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -15341,12 +15341,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-168.2</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -15356,12 +15356,12 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>19620525</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>19630416</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ZZV0000WTEC</t>
+          <t>ZZXUAICE012-data.txt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-20999-0-0WTEC</t>
+          <t>0-20999-0-ZZXUAICE012</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -15509,7 +15509,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0WTEC</t>
+          <t>ZZXUAICE012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -15539,12 +15539,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-167.3</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -15554,12 +15554,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>19630516</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>19650408</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ZZV0000ZDLG</t>
+          <t>ZZXUAICE013-data.txt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15694,7 +15694,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-20999-0-0ZDLG</t>
+          <t>0-20999-0-ZZXUAICE013</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -15707,7 +15707,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0ZDLG</t>
+          <t>ZZXUAICE013</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -15737,12 +15737,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-168.7</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -15752,12 +15752,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>19640521</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>19670404</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -15882,7 +15882,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ZZV0000ZSAF</t>
+          <t>ZZXUAICE014-data.txt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-20999-0-0ZSAF</t>
+          <t>0-20999-0-ZZXUAICE014</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0ZSAF</t>
+          <t>ZZXUAICE014</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -15935,12 +15935,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-177.6</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>74.9</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -15950,12 +15950,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>19650530</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>19651130</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -16080,7 +16080,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ZZV000ASDK3</t>
+          <t>ZZXUAICE015-data.txt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-20999-0-ASDK3</t>
+          <t>0-20999-0-ZZXUAICE015</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ASDK3</t>
+          <t>ZZXUAICE015</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -16133,12 +16133,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>168.6</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>79.1</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -16148,12 +16148,12 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>19660510</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>19680317</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -16278,7 +16278,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ZZV000ASFR1</t>
+          <t>ZZXUAICE016-data.txt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-20999-0-ASFR1</t>
+          <t>0-20999-0-ZZXUAICE016</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ASFR1</t>
+          <t>ZZXUAICE016</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -16331,12 +16331,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-178.2</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -16346,12 +16346,12 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>19680531</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>19720320</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -16476,7 +16476,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ZZV000ASFR2</t>
+          <t>ZZXUAICE017-data.txt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-20999-0-ASFR2</t>
+          <t>0-20999-0-ZZXUAICE017</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ASFR2</t>
+          <t>ZZXUAICE017</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -16529,12 +16529,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>165.7</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -16544,12 +16544,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>19680609</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>19691008</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -16674,7 +16674,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ZZV000ASFR3</t>
+          <t>ZZXUAICE019-data.txt</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16684,7 +16684,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-20999-0-ASFR3</t>
+          <t>0-20999-0-ZZXUAICE019</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ASFR3</t>
+          <t>ZZXUAICE019</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -16727,12 +16727,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>158.7</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>75.2</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -16742,12 +16742,12 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>19691231</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>19730315</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ZZV000ASFR4</t>
+          <t>ZZXUAICE021-data.txt</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -16882,7 +16882,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-20999-0-ASFR4</t>
+          <t>0-20999-0-ZZXUAICE021</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ASFR4</t>
+          <t>ZZXUAICE021</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -16925,12 +16925,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>164.0</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -16940,12 +16940,12 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>19721201</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>19740228</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -17070,7 +17070,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ZZV000ELML7</t>
+          <t>ZZXUAICE022-data.txt</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-20999-0-ELML7</t>
+          <t>0-20999-0-ZZXUAICE022</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ELML7</t>
+          <t>ZZXUAICE022</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -17123,12 +17123,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-177.2</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -17138,12 +17138,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>19740430</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>19820228</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ZZV000LADB2</t>
+          <t>ZZXUAICE026-data.txt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17278,7 +17278,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-20999-0-LADB2</t>
+          <t>0-20999-0-ZZXUAICE026</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>LADB2</t>
+          <t>ZZXUAICE026</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -17321,12 +17321,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>178.8</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -17336,12 +17336,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>19830701</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>19860228</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -17466,7 +17466,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ZZV000LAJV4</t>
+          <t>ZZXUAICE028-data.txt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17476,7 +17476,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-20999-0-LAJV4</t>
+          <t>0-20999-0-ZZXUAICE028</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -17489,7 +17489,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>LAJV4</t>
+          <t>ZZXUAICE028</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -17519,12 +17519,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>167.2</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -17534,12 +17534,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>19860630</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>19881231</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -17664,7 +17664,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ZZV000OVYA2</t>
+          <t>ZZXUAICE030-data.txt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-20999-0-OVYA2</t>
+          <t>0-20999-0-ZZXUAICE030</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -17687,7 +17687,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>OVYA2</t>
+          <t>ZZXUAICE030</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -17717,12 +17717,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -17732,12 +17732,12 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>19880731</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>19900326</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ZZV000OXTS2</t>
+          <t>ZZXUAICE031-data.txt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -17872,7 +17872,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-20999-0-OXTS2</t>
+          <t>0-20999-0-ZZXUAICE031</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -17885,7 +17885,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>OXTS2</t>
+          <t>ZZXUAICE031</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -17915,12 +17915,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-148.8</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -17930,12 +17930,12 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>19890607</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>19910723</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -18049,2382 +18049,6 @@
         </is>
       </c>
       <c r="AN89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>ZZV000OXVH2</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0-20999-0-OXVH2</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>89</v>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>OXVH2</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF90" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>ZZV000OXYH2</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0-20999-0-OXYH2</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>90</v>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>OXYH2</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF91" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>ZZV000P3OO4</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0-20999-0-P3OO4</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>91</v>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>P3OO4</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF92" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ZZV000VSBV3</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0-20999-0-VSBV3</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>92</v>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>VSBV3</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF93" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>ZZV000ZCBP6</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0-20999-0-ZCBP6</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>93</v>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>ZCBP6</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF94" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ZZV00ASDE01</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>0-20999-0-SDE01</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>94</v>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>SDE01</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF95" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>ZZV00ASDE02</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0-20999-0-SDE02</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>95</v>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>SDE02</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF96" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ZZV00ASDE03</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>0-20999-0-SDE03</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>96</v>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>SDE03</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF97" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>ZZV00ASDE04</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>0-20999-0-SDE04</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>97</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>SDE04</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF98" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ZZV00ASDE09</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>0-20999-0-SDE09</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>98</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>SDE09</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF99" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>ZZV00ASDK01</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>0-20999-0-SDK01</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>99</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>SDK01</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF100" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ZZV00ASDK02</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>MOBILE</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>0-20999-0-SDK02</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>100</v>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>SDK02</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="Z101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AA101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AB101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AD101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AE101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AF101" t="inlineStr">
-        <is>
-          <t>['85', '38', '106', '107']</t>
-        </is>
-      </c>
-      <c r="AG101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AH101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AI101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AJ101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AK101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AL101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AM101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="AN101" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>

--- a/CEUAS/meta/inventory_comparison_2/code/station_configuration/igra2_orphans_station_configuration_extended.xlsx
+++ b/CEUAS/meta/inventory_comparison_2/code/station_configuration/igra2_orphans_station_configuration_extended.xlsx
@@ -834,7 +834,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZZV0000DBBH-data.txt</t>
+          <t>ZZV0000JCCX-data.txt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000DBBH</t>
+          <t>0-20999-0-ZZV0000JCCX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ZZV0000DBBH</t>
+          <t>ZZV0000JCCX</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>-17.1</t>
+          <t>128.3</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>30.9</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>19790118</t>
+          <t>19880116</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>20050809</t>
+          <t>20091013</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZZV0000DBFM-data.txt</t>
+          <t>ZZV0000FNOR-data.txt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000DBFM</t>
+          <t>0-20999-0-ZZV0000FNOR</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ZZV0000DBFM</t>
+          <t>ZZV0000FNOR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1085,12 +1085,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6.5</t>
+          <t>-32.0</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>66.2</t>
+          <t>34.1</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>19850723</t>
+          <t>19860709</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>19881105</t>
+          <t>20021223</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZZV0000DBLK-data.txt</t>
+          <t>ZZV0000FNOU-data.txt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000DBLK</t>
+          <t>0-20999-0-ZZV0000FNOU</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ZZV0000DBLK</t>
+          <t>ZZV0000FNOU</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1283,12 +1283,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>-48.1</t>
+          <t>-42.2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-60.7</t>
+          <t>33.5</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>19850112</t>
+          <t>19860709</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>20241009</t>
+          <t>20021207</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZZV0000DCMS-data.txt</t>
+          <t>ZZV0000FNPH-data.txt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000DCMS</t>
+          <t>0-20999-0-ZZV0000FNPH</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ZZV0000DCMS</t>
+          <t>ZZV0000FNPH</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-8.6</t>
+          <t>-45.7</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>25.4</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1496,12 +1496,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>19911025</t>
+          <t>19870101</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>19930216</t>
+          <t>20030713</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZZV0000DFCG-data.txt</t>
+          <t>ZZV0000UBLF-data.txt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000DFCG</t>
+          <t>0-20999-0-ZZV0000UBLF</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ZZV0000DFCG</t>
+          <t>ZZV0000UBLF</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1679,12 +1679,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>142.0</t>
+          <t>-17.9</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>41.6</t>
+          <t>13.8</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1694,12 +1694,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>20091009</t>
+          <t>19740620</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>20151022</t>
+          <t>19790820</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZZV0000DZHA-data.txt</t>
+          <t>ZZV0000UBNZ-data.txt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000DZHA</t>
+          <t>0-20999-0-ZZV0000UBNZ</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ZZV0000DZHA</t>
+          <t>ZZV0000UBNZ</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>7.9</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>53.3</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>19900320</t>
+          <t>19830611</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>19910622</t>
+          <t>19910408</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZZV0000EBUQ-data.txt</t>
+          <t>ZZV0000UFTA-data.txt</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000EBUQ</t>
+          <t>0-20999-0-ZZV0000UFTA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ZZV0000EBUQ</t>
+          <t>ZZV0000UFTA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>-16.4</t>
+          <t>178.9</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>17.9</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2090,12 +2090,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>20030213</t>
+          <t>20080924</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>20071104</t>
+          <t>20120806</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZZV0000EREB-data.txt</t>
+          <t>ZZV0000UHQS-data.txt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000EREB</t>
+          <t>0-20999-0-ZZV0000UHQS</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ZZV0000EREB</t>
+          <t>ZZV0000UHQS</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2273,12 +2273,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>139.3</t>
+          <t>-28.0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>22.3</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2288,12 +2288,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>19730512</t>
+          <t>19740623</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>19900515</t>
+          <t>19901028</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZZV0000EREI-data.txt</t>
+          <t>ZZV00ASDK02-data.txt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000EREI</t>
+          <t>0-20999-0-ZZV00ASDK02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ZZV0000EREI</t>
+          <t>ZZV00ASDK02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2471,12 +2471,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>-26.5</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>58.5</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2486,12 +2486,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>19730218</t>
+          <t>20070713</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>19901025</t>
+          <t>20171108</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ZZV0000ERES-data.txt</t>
+          <t>ZZV0000UVMJ-data.txt</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000ERES</t>
+          <t>0-20999-0-ZZV0000UVMJ</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ZZV0000ERES</t>
+          <t>ZZV0000UVMJ</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-20.0</t>
+          <t>17.3</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>76.2</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -2684,12 +2684,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>19740627</t>
+          <t>19771101</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>19910301</t>
+          <t>19830902</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ZZV0000FNOR-data.txt</t>
+          <t>ZZV00ASDK03-data.txt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000FNOR</t>
+          <t>0-20999-0-ZZV00ASDK03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ZZV0000FNOR</t>
+          <t>ZZV00ASDK03</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2867,12 +2867,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-32.0</t>
+          <t>-12.3</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>59.4</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2882,12 +2882,12 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>19860709</t>
+          <t>20150418</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>20021223</t>
+          <t>20171204</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ZZV0000FNOU-data.txt</t>
+          <t>ZZV000ASFR3-data.txt</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000FNOU</t>
+          <t>0-20999-0-ZZV000ASFR3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3035,7 +3035,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ZZV0000FNOU</t>
+          <t>ZZV000ASFR3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-42.2</t>
+          <t>-11.0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>33.5</t>
+          <t>43.4</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>19860709</t>
+          <t>20100202</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20021207</t>
+          <t>20180609</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -3210,7 +3210,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ZZV0000FNPH-data.txt</t>
+          <t>ZZV00ASES01-data.txt</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000FNPH</t>
+          <t>0-20999-0-ZZV00ASES01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ZZV0000FNPH</t>
+          <t>ZZV00ASES01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-45.7</t>
+          <t>-17.6</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>25.4</t>
+          <t>20.4</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3278,12 +3278,12 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>19870101</t>
+          <t>20080111</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20030713</t>
+          <t>20170921</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ZZV0000FNRS-data.txt</t>
+          <t>ZZV0000DBBH-data.txt</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000FNRS</t>
+          <t>0-20999-0-ZZV0000DBBH</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ZZV0000FNRS</t>
+          <t>ZZV0000DBBH</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3461,12 +3461,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-17.1</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3476,12 +3476,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>19861106</t>
+          <t>19790118</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20030727</t>
+          <t>20050809</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ZZV0000FQFL-data.txt</t>
+          <t>ZZV00ASEU01-data.txt</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000FQFL</t>
+          <t>0-20999-0-ZZV00ASEU01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>ZZV0000FQFL</t>
+          <t>ZZV00ASEU01</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3659,12 +3659,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-12.4</t>
+          <t>-59.1</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -3674,12 +3674,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>20030721</t>
+          <t>20061112</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20061224</t>
+          <t>20170905</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ZZV0000JBOA-data.txt</t>
+          <t>ZZV0000UZGH-data.txt</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000JBOA</t>
+          <t>0-20999-0-ZZV0000UZGH</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ZZV0000JBOA</t>
+          <t>ZZV0000UZGH</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3857,12 +3857,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>127.6</t>
+          <t>-30.0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>19730628</t>
+          <t>19740101</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20000604</t>
+          <t>19910512</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ZZV0000JCCX-data.txt</t>
+          <t>ZZV0000DBFM-data.txt</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4012,7 +4012,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000JCCX</t>
+          <t>0-20999-0-ZZV0000DBFM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4025,7 +4025,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ZZV0000JCCX</t>
+          <t>ZZV0000DBFM</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4055,12 +4055,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>128.3</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>30.9</t>
+          <t>66.2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>19880116</t>
+          <t>19850723</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20091013</t>
+          <t>19881105</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ZZV0000JDWX-data.txt</t>
+          <t>ZZV00ASEU02-data.txt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000JDWX</t>
+          <t>0-20999-0-ZZV00ASEU02</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ZZV0000JDWX</t>
+          <t>ZZV00ASEU02</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>141.0</t>
+          <t>-13.6</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>43.9</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>19890124</t>
+          <t>20070125</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>20091117</t>
+          <t>20170908</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ZZV0000JGQH-data.txt</t>
+          <t>ZZV000ASFR4-data.txt</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000JGQH</t>
+          <t>0-20999-0-ZZV000ASFR4</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ZZV0000JGQH</t>
+          <t>ZZV000ASFR4</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>137.0</t>
+          <t>-26.8</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>31.6</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -4466,12 +4466,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>20000123</t>
+          <t>20100225</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>20230913</t>
+          <t>20180602</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -4596,7 +4596,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ZZV0000JIVB-data.txt</t>
+          <t>ZZV0000FNRS-data.txt</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000JIVB</t>
+          <t>0-20999-0-ZZV0000FNRS</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ZZV0000JIVB</t>
+          <t>ZZV0000FNRS</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4649,12 +4649,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>135.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -4664,12 +4664,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>20000119</t>
+          <t>19861106</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>20080928</t>
+          <t>20030727</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ZZV0000JNSR-data.txt</t>
+          <t>ZZV0000FQFL-data.txt</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4804,7 +4804,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000JNSR</t>
+          <t>0-20999-0-ZZV0000FQFL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>ZZV0000JNSR</t>
+          <t>ZZV0000FQFL</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -4847,12 +4847,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>169.6</t>
+          <t>-12.4</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -4862,12 +4862,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>20000223</t>
+          <t>20030721</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>20241115</t>
+          <t>20061224</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -4992,7 +4992,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ZZV0000KAOU-data.txt</t>
+          <t>ZZXUAICE009-data.txt</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000KAOU</t>
+          <t>0-20999-0-ZZXUAICE009</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ZZV0000KAOU</t>
+          <t>ZZXUAICE009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -5045,12 +5045,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>108.4</t>
+          <t>163.1</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>-12.3</t>
+          <t>78.0</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5060,12 +5060,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>20110902</t>
+          <t>19600614</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>20120211</t>
+          <t>19610310</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ZZV0000KNIJ-data.txt</t>
+          <t>ZZXUAICE010-data.txt</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5200,7 +5200,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000KNIJ</t>
+          <t>0-20999-0-ZZXUAICE010</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ZZV0000KNIJ</t>
+          <t>ZZXUAICE010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -5243,12 +5243,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-137.5</t>
+          <t>171.5</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>75.8</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -5258,12 +5258,12 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>19851112</t>
+          <t>19611104</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19871222</t>
+          <t>19640422</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ZZV0000LDWR-data.txt</t>
+          <t>ZZXUAICE011-data.txt</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000LDWR</t>
+          <t>0-20999-0-ZZXUAICE011</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ZZV0000LDWR</t>
+          <t>ZZXUAICE011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -5441,12 +5441,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>-168.2</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -5456,12 +5456,12 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>19900124</t>
+          <t>19620525</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>20091128</t>
+          <t>19630416</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ZZV0000LGKI-data.txt</t>
+          <t>ZZV00ASEU03-data.txt</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000LGKI</t>
+          <t>0-20999-0-ZZV00ASEU03</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>ZZV0000LGKI</t>
+          <t>ZZV00ASEU03</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5639,12 +5639,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20.6</t>
+          <t>-16.8</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>83.1</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -5654,12 +5654,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>20150123</t>
+          <t>20070113</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>20150623</t>
+          <t>20170706</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ZZV0000SWJS-data.txt</t>
+          <t>ZZXUAICE012-data.txt</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000SWJS</t>
+          <t>0-20999-0-ZZXUAICE012</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ZZV0000SWJS</t>
+          <t>ZZXUAICE012</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -5837,12 +5837,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>-167.3</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5852,12 +5852,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>20001223</t>
+          <t>19630516</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20030601</t>
+          <t>19650408</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -5982,7 +5982,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ZZV0000UBLF-data.txt</t>
+          <t>ZZV00ASEU04-data.txt</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000UBLF</t>
+          <t>0-20999-0-ZZV00ASEU04</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ZZV0000UBLF</t>
+          <t>ZZV00ASEU04</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -6035,12 +6035,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>-17.9</t>
+          <t>-34.8</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>13.8</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>19740620</t>
+          <t>20061111</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>19790820</t>
+          <t>20170917</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZZV0000UBNZ-data.txt</t>
+          <t>ZZV0000V2LV-data.txt</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000UBNZ</t>
+          <t>0-20999-0-ZZV0000V2LV</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6203,7 +6203,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ZZV0000UBNZ</t>
+          <t>ZZV0000V2LV</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -6233,12 +6233,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>7.9</t>
+          <t>-2.6</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>19830611</t>
+          <t>19930224</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>19910408</t>
+          <t>19930630</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -6378,7 +6378,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ZZV0000UFTA-data.txt</t>
+          <t>ZZXUAICE013-data.txt</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000UFTA</t>
+          <t>0-20999-0-ZZXUAICE013</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ZZV0000UFTA</t>
+          <t>ZZXUAICE013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -6431,12 +6431,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>178.9</t>
+          <t>-168.7</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -6446,12 +6446,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>20080924</t>
+          <t>19640521</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20120806</t>
+          <t>19670404</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -6576,7 +6576,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ZZV0000UHQS-data.txt</t>
+          <t>ZZV0000V2XM-data.txt</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000UHQS</t>
+          <t>0-20999-0-ZZV0000V2XM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ZZV0000UHQS</t>
+          <t>ZZV0000V2XM</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -6629,12 +6629,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>-28.0</t>
+          <t>-29.1</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -6644,12 +6644,12 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>19740623</t>
+          <t>20030202</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>19901028</t>
+          <t>20070424</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ZZV0000UVMJ-data.txt</t>
+          <t>ZZV0000DBLK-data.txt</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000UVMJ</t>
+          <t>0-20999-0-ZZV0000DBLK</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -6797,7 +6797,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ZZV0000UVMJ</t>
+          <t>ZZV0000DBLK</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6827,12 +6827,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>-48.1</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>76.2</t>
+          <t>-60.7</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -6842,12 +6842,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>19771101</t>
+          <t>19850112</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>19830902</t>
+          <t>20241009</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ZZV0000UZGH-data.txt</t>
+          <t>ZZXUAICE014-data.txt</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000UZGH</t>
+          <t>0-20999-0-ZZXUAICE014</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ZZV0000UZGH</t>
+          <t>ZZXUAICE014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -7025,12 +7025,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-30.0</t>
+          <t>-177.6</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>74.9</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -7040,12 +7040,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>19740101</t>
+          <t>19650530</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>19910512</t>
+          <t>19651130</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ZZV0000V2LV-data.txt</t>
+          <t>ZZV0000VPHA-data.txt</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000V2LV</t>
+          <t>0-20999-0-ZZV0000VPHA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ZZV0000V2LV</t>
+          <t>ZZV0000VPHA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -7223,12 +7223,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-2.6</t>
+          <t>-35.2</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -7238,12 +7238,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>19930224</t>
+          <t>19880106</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>19930630</t>
+          <t>19921231</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -7368,7 +7368,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ZZV0000V2XM-data.txt</t>
+          <t>ZZXUAICE015-data.txt</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000V2XM</t>
+          <t>0-20999-0-ZZXUAICE015</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ZZV0000V2XM</t>
+          <t>ZZXUAICE015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7421,12 +7421,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-29.1</t>
+          <t>168.6</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>79.1</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>20030202</t>
+          <t>19660510</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>20070424</t>
+          <t>19680317</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -7566,7 +7566,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ZZV0000VPHA-data.txt</t>
+          <t>ZZV0000DCMS-data.txt</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000VPHA</t>
+          <t>0-20999-0-ZZV0000DCMS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>ZZV0000VPHA</t>
+          <t>ZZV0000DCMS</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -7619,12 +7619,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-35.2</t>
+          <t>-8.6</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -7634,12 +7634,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>19880106</t>
+          <t>19911025</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>19921231</t>
+          <t>19930216</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ZZV0000WTEC-data.txt</t>
+          <t>ZZXUAICE016-data.txt</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000WTEC</t>
+          <t>0-20999-0-ZZXUAICE016</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>ZZV0000WTEC</t>
+          <t>ZZXUAICE016</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -8015,12 +8015,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>-128.5</t>
+          <t>-178.2</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>33.2</t>
+          <t>76.0</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -8030,12 +8030,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>20001007</t>
+          <t>19680531</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>20200203</t>
+          <t>19720320</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ZZV0000ZDLG-data.txt</t>
+          <t>ZZV00ASEU05-data.txt</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000ZDLG</t>
+          <t>0-20999-0-ZZV00ASEU05</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -8183,7 +8183,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ZZV0000ZDLG</t>
+          <t>ZZV00ASEU05</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -8213,12 +8213,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-22.0</t>
+          <t>-74.5</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>-68.3</t>
+          <t>21.8</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -8228,12 +8228,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>19860108</t>
+          <t>20061117</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19930430</t>
+          <t>20170814</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ZZV0000ZSAF-data.txt</t>
+          <t>ZZXUAICE017-data.txt</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8368,7 +8368,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV0000ZSAF</t>
+          <t>0-20999-0-ZZXUAICE017</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -8381,7 +8381,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ZZV0000ZSAF</t>
+          <t>ZZXUAICE017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -8411,12 +8411,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>36.3</t>
+          <t>165.7</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>-45.4</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -8426,12 +8426,12 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>19890814</t>
+          <t>19680609</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>20081012</t>
+          <t>19691008</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ZZV000ASFR2-data.txt</t>
+          <t>ZZXUAICE019-data.txt</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8566,7 +8566,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000ASFR2</t>
+          <t>0-20999-0-ZZXUAICE019</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>ZZV000ASFR2</t>
+          <t>ZZXUAICE019</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -8609,12 +8609,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>-12.9</t>
+          <t>158.7</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>75.2</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -8624,12 +8624,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>20070404</t>
+          <t>19691231</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>20180527</t>
+          <t>19730315</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -8754,7 +8754,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ZZV000ASFR3-data.txt</t>
+          <t>ZZXUAICE021-data.txt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000ASFR3</t>
+          <t>0-20999-0-ZZXUAICE021</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>ZZV000ASFR3</t>
+          <t>ZZXUAICE021</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -8807,12 +8807,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>164.0</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>43.4</t>
+          <t>77.6</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -8822,12 +8822,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>20100202</t>
+          <t>19721201</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>20180609</t>
+          <t>19740228</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ZZV000ASFR4-data.txt</t>
+          <t>ZZXUAICE022-data.txt</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000ASFR4</t>
+          <t>0-20999-0-ZZXUAICE022</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ZZV000ASFR4</t>
+          <t>ZZXUAICE022</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -9005,12 +9005,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>-26.8</t>
+          <t>-177.2</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>78.1</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -9020,12 +9020,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>20100225</t>
+          <t>19740430</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>20180602</t>
+          <t>19820228</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ZZV000LADB2-data.txt</t>
+          <t>ZZXUAICE026-data.txt</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000LADB2</t>
+          <t>0-20999-0-ZZXUAICE026</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ZZV000LADB2</t>
+          <t>ZZXUAICE026</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -9203,12 +9203,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>-135.7</t>
+          <t>178.8</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>78.4</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -9218,12 +9218,12 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>19920113</t>
+          <t>19830701</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>19930629</t>
+          <t>19860228</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -9348,7 +9348,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ZZV000LAJV4-data.txt</t>
+          <t>ZZXUAICE028-data.txt</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000LAJV4</t>
+          <t>0-20999-0-ZZXUAICE028</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>ZZV000LAJV4</t>
+          <t>ZZXUAICE028</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -9401,12 +9401,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>149.2</t>
+          <t>167.2</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>81.7</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -9416,12 +9416,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>19910325</t>
+          <t>19860630</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>19920326</t>
+          <t>19881231</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -9546,7 +9546,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ZZV000OVYA2-data.txt</t>
+          <t>ZZXUAICE030-data.txt</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9556,7 +9556,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000OVYA2</t>
+          <t>0-20999-0-ZZXUAICE030</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ZZV000OVYA2</t>
+          <t>ZZXUAICE030</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -9599,12 +9599,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>159.0</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>58.8</t>
+          <t>76.7</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -9614,12 +9614,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>20000109</t>
+          <t>19880731</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>20030125</t>
+          <t>19900326</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ZZV000OXTS2-data.txt</t>
+          <t>ZZXUAICE031-data.txt</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9754,7 +9754,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000OXTS2</t>
+          <t>0-20999-0-ZZXUAICE031</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ZZV000OXTS2</t>
+          <t>ZZXUAICE031</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -9797,12 +9797,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>-28.2</t>
+          <t>-148.8</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>63.9</t>
+          <t>78.6</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -9812,12 +9812,12 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>20000103</t>
+          <t>19890607</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>20070224</t>
+          <t>19910723</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ZZV000OXVH2-data.txt</t>
+          <t>ZZV0000JBOA-data.txt</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9952,7 +9952,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000OXVH2</t>
+          <t>0-20999-0-ZZV0000JBOA</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ZZV000OXVH2</t>
+          <t>ZZV0000JBOA</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -9995,12 +9995,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>127.6</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -10010,12 +10010,12 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>20030412</t>
+          <t>19730628</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>20061130</t>
+          <t>20000604</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -10140,7 +10140,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ZZV000OXYH2-data.txt</t>
+          <t>ZZV000LADB2-data.txt</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000OXYH2</t>
+          <t>0-20999-0-ZZV000LADB2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ZZV000OXYH2</t>
+          <t>ZZV000LADB2</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>-135.7</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>57.9</t>
+          <t>54.4</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>20000415</t>
+          <t>19920113</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>20051130</t>
+          <t>19930629</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -10338,7 +10338,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ZZV000P3OO4-data.txt</t>
+          <t>ZZV000LAJV4-data.txt</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000P3OO4</t>
+          <t>0-20999-0-ZZV000LAJV4</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ZZV000P3OO4</t>
+          <t>ZZV000LAJV4</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -10391,12 +10391,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>-84.5</t>
+          <t>149.2</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>24.7</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -10406,12 +10406,12 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>19920830</t>
+          <t>19910325</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>19930629</t>
+          <t>19920326</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ZZV000VSBV3-data.txt</t>
+          <t>ZZV000OVYA2-data.txt</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10546,7 +10546,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV000VSBV3</t>
+          <t>0-20999-0-ZZV000OVYA2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ZZV000VSBV3</t>
+          <t>ZZV000OVYA2</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -10589,12 +10589,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-11.5</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>58.8</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -10604,12 +10604,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>19920115</t>
+          <t>20000109</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>19921218</t>
+          <t>20030125</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
@@ -10734,7 +10734,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ZZV00ASDE01-data.txt</t>
+          <t>ZZV000OXTS2-data.txt</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASDE01</t>
+          <t>0-20999-0-ZZV000OXTS2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ZZV00ASDE01</t>
+          <t>ZZV000OXTS2</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -10787,12 +10787,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>-14.0</t>
+          <t>-28.2</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>63.9</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -10802,12 +10802,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>20061115</t>
+          <t>20000103</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>20170810</t>
+          <t>20070224</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ZZV00ASDE02-data.txt</t>
+          <t>ZZV0000JDWX-data.txt</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10942,7 +10942,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASDE02</t>
+          <t>0-20999-0-ZZV0000JDWX</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ZZV00ASDE02</t>
+          <t>ZZV0000JDWX</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -10985,12 +10985,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>31.7</t>
+          <t>141.0</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>32.4</t>
+          <t>43.9</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -11000,12 +11000,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>20061111</t>
+          <t>19890124</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>20171008</t>
+          <t>20091117</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ZZV00ASDE03-data.txt</t>
+          <t>ZZV000OXVH2-data.txt</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASDE03</t>
+          <t>0-20999-0-ZZV000OXVH2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ZZV00ASDE03</t>
+          <t>ZZV000OXVH2</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -11183,12 +11183,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>-65.7</t>
+          <t>-6.7</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -11198,12 +11198,12 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>20061123</t>
+          <t>20030412</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>20170629</t>
+          <t>20061130</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ZZV00ASDE04-data.txt</t>
+          <t>ZZV0000DFCG-data.txt</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11338,7 +11338,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASDE04</t>
+          <t>0-20999-0-ZZV0000DFCG</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ZZV00ASDE04</t>
+          <t>ZZV0000DFCG</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -11381,12 +11381,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>-29.5</t>
+          <t>142.0</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -11396,12 +11396,12 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>20060619</t>
+          <t>20091009</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>20160930</t>
+          <t>20151022</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
@@ -11526,7 +11526,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ZZV00ASDK01-data.txt</t>
+          <t>ZZV0000WTEC-data.txt</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11536,7 +11536,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASDK01</t>
+          <t>0-20999-0-ZZV0000WTEC</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>ZZV00ASDK01</t>
+          <t>ZZV0000WTEC</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -11579,12 +11579,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>-128.5</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>61.1</t>
+          <t>33.2</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -11594,12 +11594,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>20070303</t>
+          <t>20001007</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>20171220</t>
+          <t>20200203</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
@@ -11724,7 +11724,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ZZV00ASDK02-data.txt</t>
+          <t>ZZV0000ZDLG-data.txt</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11734,7 +11734,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASDK02</t>
+          <t>0-20999-0-ZZV0000ZDLG</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ZZV00ASDK02</t>
+          <t>ZZV0000ZDLG</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -11777,12 +11777,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>-26.5</t>
+          <t>-22.0</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>-68.3</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -11792,12 +11792,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>20070713</t>
+          <t>19860108</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>20171108</t>
+          <t>19930430</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -11922,7 +11922,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ZZV00ASDK03-data.txt</t>
+          <t>ZZV00ASGB01-data.txt</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASDK03</t>
+          <t>0-20999-0-ZZV00ASGB01</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>ZZV00ASDK03</t>
+          <t>ZZV00ASGB01</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -11975,12 +11975,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>-12.3</t>
+          <t>-32.1</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>59.4</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -11990,12 +11990,12 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>20150418</t>
+          <t>20070101</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>20171204</t>
+          <t>20110709</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
@@ -12120,7 +12120,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ZZV00ASES01-data.txt</t>
+          <t>ZZV000OXYH2-data.txt</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASES01</t>
+          <t>0-20999-0-ZZV000OXYH2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ZZV00ASES01</t>
+          <t>ZZV000OXYH2</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>-17.6</t>
+          <t>9.7</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>20.4</t>
+          <t>57.9</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>20080111</t>
+          <t>20000415</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>20170921</t>
+          <t>20051130</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ZZV00ASEU01-data.txt</t>
+          <t>ZZV0000ZSAF-data.txt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASEU01</t>
+          <t>0-20999-0-ZZV0000ZSAF</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ZZV00ASEU01</t>
+          <t>ZZV0000ZSAF</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -12371,12 +12371,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>-59.1</t>
+          <t>36.3</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>-45.4</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -12386,12 +12386,12 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>20061112</t>
+          <t>19890814</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>20170905</t>
+          <t>20081012</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
@@ -12516,7 +12516,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ZZV00ASEU02-data.txt</t>
+          <t>ZZV0000JGQH-data.txt</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12526,7 +12526,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASEU02</t>
+          <t>0-20999-0-ZZV0000JGQH</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -12539,7 +12539,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ZZV00ASEU02</t>
+          <t>ZZV0000JGQH</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -12569,12 +12569,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>-13.6</t>
+          <t>137.0</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>31.6</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -12584,12 +12584,12 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>20070125</t>
+          <t>20000123</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>20170908</t>
+          <t>20230913</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ZZV00ASEU03-data.txt</t>
+          <t>ZZXUAICE002-data.txt</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASEU03</t>
+          <t>0-20999-0-ZZXUAICE002</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ZZV00ASEU03</t>
+          <t>ZZXUAICE002</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -12767,12 +12767,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>-16.8</t>
+          <t>-167.2</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>76.4</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -12782,12 +12782,12 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>20070113</t>
+          <t>19500415</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>20170706</t>
+          <t>19501019</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
@@ -12912,7 +12912,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ZZV00ASEU04-data.txt</t>
+          <t>ZZXUAICE003-data.txt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -12922,7 +12922,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASEU04</t>
+          <t>0-20999-0-ZZXUAICE003</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -12935,7 +12935,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ZZV00ASEU04</t>
+          <t>ZZXUAICE003</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -12965,12 +12965,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>-34.8</t>
+          <t>-177.1</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>86.6</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -12980,12 +12980,12 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>20061111</t>
+          <t>19540420</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20170917</t>
+          <t>19550414</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ZZV00ASEU05-data.txt</t>
+          <t>ZZXUAICE004-data.txt</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13120,7 +13120,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASEU05</t>
+          <t>0-20999-0-ZZXUAICE004</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ZZV00ASEU05</t>
+          <t>ZZXUAICE004</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -13163,12 +13163,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>-74.5</t>
+          <t>-178.1</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>21.8</t>
+          <t>75.6</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -13178,12 +13178,12 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>20061117</t>
+          <t>19540419</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20170814</t>
+          <t>19570415</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -13308,7 +13308,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ZZV00ASGB01-data.txt</t>
+          <t>ZZXUAICE005-data.txt</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13318,7 +13318,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZV00ASGB01</t>
+          <t>0-20999-0-ZZXUAICE005</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>ZZV00ASGB01</t>
+          <t>ZZXUAICE005</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -13361,12 +13361,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-32.1</t>
+          <t>155.4</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>82.4</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -13376,12 +13376,12 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>20070101</t>
+          <t>19550507</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>20110709</t>
+          <t>19560415</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ZZXUAICE002-data.txt</t>
+          <t>ZZV000P3OO4-data.txt</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE002</t>
+          <t>0-20999-0-ZZV000P3OO4</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>ZZXUAICE002</t>
+          <t>ZZV000P3OO4</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -13559,12 +13559,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-167.2</t>
+          <t>-84.5</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>76.4</t>
+          <t>24.7</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -13574,12 +13574,12 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>19500415</t>
+          <t>19920830</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>19501019</t>
+          <t>19930629</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
@@ -13704,7 +13704,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ZZXUAICE003-data.txt</t>
+          <t>ZZXUAICE006-data.txt</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13714,7 +13714,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE003</t>
+          <t>0-20999-0-ZZXUAICE006</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ZZXUAICE003</t>
+          <t>ZZXUAICE006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -13757,12 +13757,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>-177.1</t>
+          <t>178.4</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>86.6</t>
+          <t>74.9</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -13772,12 +13772,12 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>19540420</t>
+          <t>19560516</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>19550414</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
@@ -13902,7 +13902,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ZZXUAICE004-data.txt</t>
+          <t>ZZV000VSBV3-data.txt</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE004</t>
+          <t>0-20999-0-ZZV000VSBV3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>ZZXUAICE004</t>
+          <t>ZZV000VSBV3</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -13955,12 +13955,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-178.1</t>
+          <t>-11.5</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>75.6</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -13970,12 +13970,12 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>19540419</t>
+          <t>19920115</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>19570415</t>
+          <t>19921218</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ZZXUAICE005-data.txt</t>
+          <t>ZZXUAICE007-data.txt</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE005</t>
+          <t>0-20999-0-ZZXUAICE007</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -14123,7 +14123,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ZZXUAICE005</t>
+          <t>ZZXUAICE007</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -14153,12 +14153,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>155.4</t>
+          <t>-164.0</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>82.4</t>
+          <t>82.1</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -14168,12 +14168,12 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>19550507</t>
+          <t>19570519</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>19560415</t>
+          <t>19590331</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ZZXUAICE006-data.txt</t>
+          <t>ZZXUAICE008-data.txt</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14308,7 +14308,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE006</t>
+          <t>0-20999-0-ZZXUAICE008</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>ZZXUAICE006</t>
+          <t>ZZXUAICE008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -14351,12 +14351,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>178.4</t>
+          <t>-166.5</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>74.9</t>
+          <t>76.8</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -14366,12 +14366,12 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>19560516</t>
+          <t>19590524</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>19590331</t>
+          <t>19611030</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
@@ -14496,7 +14496,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ZZXUAICE007-data.txt</t>
+          <t>ZZV0000JIVB-data.txt</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE007</t>
+          <t>0-20999-0-ZZV0000JIVB</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -14519,7 +14519,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ZZXUAICE007</t>
+          <t>ZZV0000JIVB</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -14549,12 +14549,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-164.0</t>
+          <t>135.0</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>82.1</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>19570519</t>
+          <t>20000119</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>19590331</t>
+          <t>20080928</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
@@ -14694,7 +14694,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ZZXUAICE008-data.txt</t>
+          <t>ZZV0000JNSR-data.txt</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE008</t>
+          <t>0-20999-0-ZZV0000JNSR</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -14717,7 +14717,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ZZXUAICE008</t>
+          <t>ZZV0000JNSR</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -14747,12 +14747,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-166.5</t>
+          <t>169.6</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -14762,12 +14762,12 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>19590524</t>
+          <t>20000223</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>19611030</t>
+          <t>20241115</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ZZXUAICE009-data.txt</t>
+          <t>ZZV0000KAOU-data.txt</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -14902,7 +14902,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE009</t>
+          <t>0-20999-0-ZZV0000KAOU</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -14915,7 +14915,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ZZXUAICE009</t>
+          <t>ZZV0000KAOU</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -14945,12 +14945,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>163.1</t>
+          <t>108.4</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>78.0</t>
+          <t>-12.3</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -14960,12 +14960,12 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>19600614</t>
+          <t>20110902</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>19610310</t>
+          <t>20120211</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
@@ -15090,7 +15090,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ZZXUAICE010-data.txt</t>
+          <t>ZZV00ASDE01-data.txt</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE010</t>
+          <t>0-20999-0-ZZV00ASDE01</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>ZZXUAICE010</t>
+          <t>ZZV00ASDE01</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -15143,12 +15143,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>171.5</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>75.8</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -15158,12 +15158,12 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>19611104</t>
+          <t>20061115</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>19640422</t>
+          <t>20170810</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
@@ -15288,7 +15288,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ZZXUAICE011-data.txt</t>
+          <t>ZZV00ASDE02-data.txt</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15298,7 +15298,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE011</t>
+          <t>0-20999-0-ZZV00ASDE02</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ZZXUAICE011</t>
+          <t>ZZV00ASDE02</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -15341,12 +15341,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>-168.2</t>
+          <t>31.7</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>32.4</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -15356,12 +15356,12 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>19620525</t>
+          <t>20061111</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>19630416</t>
+          <t>20171008</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ZZXUAICE012-data.txt</t>
+          <t>ZZV00ASDE03-data.txt</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15496,7 +15496,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE012</t>
+          <t>0-20999-0-ZZV00ASDE03</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -15509,7 +15509,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ZZXUAICE012</t>
+          <t>ZZV00ASDE03</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -15539,12 +15539,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>-167.3</t>
+          <t>-65.7</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>76.8</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -15554,12 +15554,12 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>19630516</t>
+          <t>20061123</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>19650408</t>
+          <t>20170629</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
@@ -15684,7 +15684,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ZZXUAICE013-data.txt</t>
+          <t>ZZV00ASDE04-data.txt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15694,7 +15694,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE013</t>
+          <t>0-20999-0-ZZV00ASDE04</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -15707,7 +15707,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>ZZXUAICE013</t>
+          <t>ZZV00ASDE04</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -15737,12 +15737,12 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-168.7</t>
+          <t>-29.5</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -15752,12 +15752,12 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>19640521</t>
+          <t>20060619</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>19670404</t>
+          <t>20160930</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
@@ -15882,7 +15882,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ZZXUAICE014-data.txt</t>
+          <t>ZZV000ASFR2-data.txt</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE014</t>
+          <t>0-20999-0-ZZV000ASFR2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -15905,7 +15905,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>ZZXUAICE014</t>
+          <t>ZZV000ASFR2</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -15935,12 +15935,12 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-177.6</t>
+          <t>-12.9</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>74.9</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -15950,12 +15950,12 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>19650530</t>
+          <t>20070404</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>19651130</t>
+          <t>20180527</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
@@ -16080,7 +16080,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ZZXUAICE015-data.txt</t>
+          <t>ZZV0000KNIJ-data.txt</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16090,7 +16090,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE015</t>
+          <t>0-20999-0-ZZV0000KNIJ</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>ZZXUAICE015</t>
+          <t>ZZV0000KNIJ</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -16133,12 +16133,12 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>168.6</t>
+          <t>-137.5</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>79.1</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -16148,12 +16148,12 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>19660510</t>
+          <t>19851112</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>19680317</t>
+          <t>19871222</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
@@ -16278,7 +16278,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ZZXUAICE016-data.txt</t>
+          <t>ZZV0000LDWR-data.txt</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE016</t>
+          <t>0-20999-0-ZZV0000LDWR</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>ZZXUAICE016</t>
+          <t>ZZV0000LDWR</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -16331,12 +16331,12 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-178.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>76.0</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -16346,12 +16346,12 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>19680531</t>
+          <t>19900124</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>19720320</t>
+          <t>20091128</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
@@ -16476,7 +16476,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ZZXUAICE017-data.txt</t>
+          <t>ZZV0000LGKI-data.txt</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16486,7 +16486,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE017</t>
+          <t>0-20999-0-ZZV0000LGKI</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ZZXUAICE017</t>
+          <t>ZZV0000LGKI</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -16529,12 +16529,12 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>165.7</t>
+          <t>20.6</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>81.7</t>
+          <t>83.1</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -16544,12 +16544,12 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>19680609</t>
+          <t>20150123</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>19691008</t>
+          <t>20150623</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
@@ -16674,7 +16674,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ZZXUAICE019-data.txt</t>
+          <t>ZZV0000DZHA-data.txt</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16684,7 +16684,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE019</t>
+          <t>0-20999-0-ZZV0000DZHA</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>ZZXUAICE019</t>
+          <t>ZZV0000DZHA</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -16727,12 +16727,12 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>158.7</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>75.2</t>
+          <t>53.3</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -16742,12 +16742,12 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>19691231</t>
+          <t>19900320</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>19730315</t>
+          <t>19910622</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
@@ -16872,7 +16872,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ZZXUAICE021-data.txt</t>
+          <t>ZZV0000SWJS-data.txt</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -16882,7 +16882,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE021</t>
+          <t>0-20999-0-ZZV0000SWJS</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -16895,7 +16895,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ZZXUAICE021</t>
+          <t>ZZV0000SWJS</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -16925,12 +16925,12 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>164.0</t>
+          <t>6.9</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>77.6</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -16940,12 +16940,12 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>19721201</t>
+          <t>20001223</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>19740228</t>
+          <t>20030601</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
@@ -17070,7 +17070,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ZZXUAICE022-data.txt</t>
+          <t>ZZV0000EBUQ-data.txt</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17080,7 +17080,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE022</t>
+          <t>0-20999-0-ZZV0000EBUQ</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ZZXUAICE022</t>
+          <t>ZZV0000EBUQ</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -17123,12 +17123,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-177.2</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>78.1</t>
+          <t>17.9</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -17138,12 +17138,12 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>19740430</t>
+          <t>20030213</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>19820228</t>
+          <t>20071104</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ZZXUAICE026-data.txt</t>
+          <t>ZZV0000EREB-data.txt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17278,7 +17278,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE026</t>
+          <t>0-20999-0-ZZV0000EREB</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ZZXUAICE026</t>
+          <t>ZZV0000EREB</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -17321,12 +17321,12 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>178.8</t>
+          <t>139.3</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>78.4</t>
+          <t>22.3</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -17336,12 +17336,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>19830701</t>
+          <t>19730512</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>19860228</t>
+          <t>19900515</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
@@ -17466,7 +17466,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ZZXUAICE028-data.txt</t>
+          <t>ZZV0000EREI-data.txt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17476,7 +17476,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE028</t>
+          <t>0-20999-0-ZZV0000EREI</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -17489,7 +17489,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ZZXUAICE028</t>
+          <t>ZZV0000EREI</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -17519,12 +17519,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>167.2</t>
+          <t>135.0</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>81.7</t>
+          <t>15.1</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -17534,12 +17534,12 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>19860630</t>
+          <t>19730218</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>19881231</t>
+          <t>19901025</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
@@ -17664,7 +17664,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ZZXUAICE030-data.txt</t>
+          <t>ZZV0000ERES-data.txt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17674,7 +17674,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE030</t>
+          <t>0-20999-0-ZZV0000ERES</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -17687,7 +17687,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ZZXUAICE030</t>
+          <t>ZZV0000ERES</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -17717,12 +17717,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>159.0</t>
+          <t>-20.0</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>76.7</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -17732,12 +17732,12 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>19880731</t>
+          <t>19740627</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>19900326</t>
+          <t>19910301</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ZZXUAICE031-data.txt</t>
+          <t>ZZV00ASDK01-data.txt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -17872,7 +17872,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0-20999-0-ZZXUAICE031</t>
+          <t>0-20999-0-ZZV00ASDK01</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -17885,7 +17885,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>ZZXUAICE031</t>
+          <t>ZZV00ASDK01</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -17915,12 +17915,12 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-148.8</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>78.6</t>
+          <t>61.1</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -17930,12 +17930,12 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>19890607</t>
+          <t>20070303</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>19910723</t>
+          <t>20171220</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
